--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\代码\Industry4.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\daima\ENG3005-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013D6CB-55E1-4470-AE4E-C7ED78840365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE3D0B5-CD2D-45D9-997D-50E110043A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="2700" windowWidth="20748" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3648" yWindow="4224" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,59 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Name</t>
+    <t>Atm</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>Airbox</t>
   </si>
   <si>
-    <t>Body Mass</t>
-  </si>
-  <si>
-    <t>Center of mass</t>
-  </si>
-  <si>
-    <t>(0 0 0）</t>
-  </si>
-  <si>
-    <t>Inertia</t>
-  </si>
-  <si>
-    <t>（0.27 0.27 0.8 0 0 0）</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0.07 0.07 0.07 0 0 0）</t>
-  </si>
-  <si>
-    <t>（0.07 0.07 0.07 0 0 0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0.002 0.002 0.004 0 0 0）</t>
+    <t>Inlet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +50,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -113,8 +98,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -406,91 +403,1427 @@
     <col min="4" max="4" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1">
+        <v>236</v>
+      </c>
+      <c r="I1" s="1">
+        <v>195</v>
+      </c>
+      <c r="J1" s="1">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1">
+        <v>178</v>
+      </c>
+      <c r="M1" s="1">
+        <v>182</v>
+      </c>
+      <c r="N1" s="1">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1">
+        <v>118</v>
+      </c>
+      <c r="P1" s="1">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>148</v>
+      </c>
+      <c r="R1" s="1">
+        <v>168</v>
+      </c>
+      <c r="S1" s="1">
+        <v>180</v>
+      </c>
+      <c r="T1" s="2">
+        <v>186</v>
+      </c>
+      <c r="U1" s="1">
+        <v>244</v>
+      </c>
+      <c r="V1" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>146</v>
+      </c>
+      <c r="I2" s="1">
+        <v>220</v>
+      </c>
+      <c r="J2" s="1">
+        <v>197</v>
+      </c>
+      <c r="K2" s="1">
+        <v>187</v>
+      </c>
+      <c r="L2" s="1">
+        <v>188</v>
+      </c>
+      <c r="M2" s="1">
+        <v>187</v>
+      </c>
+      <c r="N2" s="1">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1">
+        <v>88</v>
+      </c>
+      <c r="P2" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>146</v>
+      </c>
+      <c r="R2" s="1">
+        <v>164</v>
+      </c>
+      <c r="S2" s="1">
+        <v>180</v>
+      </c>
+      <c r="T2" s="2">
+        <v>186</v>
+      </c>
+      <c r="U2" s="1">
+        <v>244</v>
+      </c>
+      <c r="V2" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>236</v>
+      </c>
+      <c r="B3" s="1">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1">
+        <v>244</v>
+      </c>
+      <c r="D3" s="1">
+        <v>242</v>
+      </c>
+      <c r="E3" s="1">
+        <v>247</v>
+      </c>
+      <c r="F3" s="1">
+        <v>248</v>
+      </c>
+      <c r="G3" s="1">
+        <v>247</v>
+      </c>
+      <c r="H3" s="1">
+        <v>244</v>
+      </c>
+      <c r="I3" s="1">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1">
+        <v>212</v>
+      </c>
+      <c r="K3" s="1">
+        <v>199</v>
+      </c>
+      <c r="L3" s="1">
+        <v>194</v>
+      </c>
+      <c r="M3" s="1">
+        <v>189</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>146</v>
+      </c>
+      <c r="R3" s="1">
+        <v>166</v>
+      </c>
+      <c r="S3" s="1">
+        <v>178</v>
+      </c>
+      <c r="T3" s="2">
+        <v>186</v>
+      </c>
+      <c r="U3" s="1">
+        <v>244</v>
+      </c>
+      <c r="V3" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>195</v>
+      </c>
+      <c r="B4" s="1">
+        <v>220</v>
+      </c>
+      <c r="C4" s="1">
+        <v>235</v>
+      </c>
+      <c r="D4" s="2">
+        <v>239</v>
+      </c>
+      <c r="E4" s="1">
+        <v>236</v>
+      </c>
+      <c r="F4" s="1">
+        <v>238</v>
+      </c>
+      <c r="G4" s="1">
+        <v>242</v>
+      </c>
+      <c r="H4" s="1">
+        <v>242</v>
+      </c>
+      <c r="I4" s="2">
+        <v>239</v>
+      </c>
+      <c r="J4" s="1">
+        <v>217</v>
+      </c>
+      <c r="K4" s="1">
+        <v>203</v>
+      </c>
+      <c r="L4" s="1">
+        <v>196</v>
+      </c>
+      <c r="M4" s="1">
+        <v>190</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>148</v>
+      </c>
+      <c r="R4" s="1">
+        <v>165</v>
+      </c>
+      <c r="S4" s="1">
+        <v>178</v>
+      </c>
+      <c r="T4" s="2">
+        <v>186</v>
+      </c>
+      <c r="U4" s="1">
+        <v>244</v>
+      </c>
+      <c r="V4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>175</v>
+      </c>
+      <c r="B5" s="1">
+        <v>197</v>
+      </c>
+      <c r="C5" s="1">
+        <v>212</v>
+      </c>
+      <c r="D5" s="1">
+        <v>217</v>
+      </c>
+      <c r="E5" s="1">
+        <v>217</v>
+      </c>
+      <c r="F5" s="1">
+        <v>220</v>
+      </c>
+      <c r="G5" s="1">
+        <v>226</v>
+      </c>
+      <c r="H5" s="1">
+        <v>247</v>
+      </c>
+      <c r="I5" s="1">
+        <v>236</v>
+      </c>
+      <c r="J5" s="1">
+        <v>217</v>
+      </c>
+      <c r="K5" s="2">
+        <v>205</v>
+      </c>
+      <c r="L5" s="2">
+        <v>197</v>
+      </c>
+      <c r="M5" s="1">
+        <v>190</v>
+      </c>
+      <c r="N5" s="1">
+        <v>156</v>
+      </c>
+      <c r="O5" s="1">
+        <v>154</v>
+      </c>
+      <c r="P5" s="1">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>153</v>
+      </c>
+      <c r="R5" s="1">
+        <v>154</v>
+      </c>
+      <c r="S5" s="1">
+        <v>158</v>
+      </c>
+      <c r="T5" s="2">
+        <v>186</v>
+      </c>
+      <c r="U5" s="1">
+        <v>244</v>
+      </c>
+      <c r="V5" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1">
+        <v>187</v>
+      </c>
+      <c r="C6" s="1">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1">
+        <v>203</v>
+      </c>
+      <c r="E6" s="2">
+        <v>205</v>
+      </c>
+      <c r="F6" s="1">
+        <v>209</v>
+      </c>
+      <c r="G6" s="1">
+        <v>217</v>
+      </c>
+      <c r="H6" s="1">
+        <v>248</v>
+      </c>
+      <c r="I6" s="1">
+        <v>238</v>
+      </c>
+      <c r="J6" s="1">
+        <v>220</v>
+      </c>
+      <c r="K6" s="1">
+        <v>209</v>
+      </c>
+      <c r="L6" s="1">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>192</v>
+      </c>
+      <c r="N6" s="1">
+        <v>164</v>
+      </c>
+      <c r="O6" s="1">
+        <v>162</v>
+      </c>
+      <c r="P6" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>160</v>
+      </c>
+      <c r="R6" s="1">
+        <v>160</v>
+      </c>
+      <c r="S6" s="1">
+        <v>162</v>
+      </c>
+      <c r="T6" s="2">
+        <v>186</v>
+      </c>
+      <c r="U6" s="1">
+        <v>244</v>
+      </c>
+      <c r="V6" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1">
+        <v>188</v>
+      </c>
+      <c r="C7" s="1">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1">
+        <v>196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1">
+        <v>200</v>
+      </c>
+      <c r="G7" s="1">
+        <v>205</v>
+      </c>
+      <c r="H7" s="1">
+        <v>247</v>
+      </c>
+      <c r="I7" s="1">
+        <v>242</v>
+      </c>
+      <c r="J7" s="1">
+        <v>226</v>
+      </c>
+      <c r="K7" s="1">
+        <v>217</v>
+      </c>
+      <c r="L7" s="1">
+        <v>205</v>
+      </c>
+      <c r="M7" s="1">
+        <v>196</v>
+      </c>
+      <c r="N7" s="1">
+        <v>172</v>
+      </c>
+      <c r="O7" s="1">
+        <v>170</v>
+      </c>
+      <c r="P7" s="1">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>168</v>
+      </c>
+      <c r="R7" s="1">
+        <v>164</v>
+      </c>
+      <c r="S7" s="1">
+        <v>164</v>
+      </c>
+      <c r="T7" s="2">
+        <v>186</v>
+      </c>
+      <c r="U7" s="1">
+        <v>246</v>
+      </c>
+      <c r="V7" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>182</v>
+      </c>
+      <c r="B8" s="1">
+        <v>187</v>
+      </c>
+      <c r="C8" s="1">
+        <v>189</v>
+      </c>
+      <c r="D8" s="1">
+        <v>190</v>
+      </c>
+      <c r="E8" s="1">
+        <v>190</v>
+      </c>
+      <c r="F8" s="1">
+        <v>192</v>
+      </c>
+      <c r="G8" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>156</v>
+      </c>
+      <c r="F9" s="1">
+        <v>164</v>
+      </c>
+      <c r="G9" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1">
+        <v>162</v>
+      </c>
+      <c r="G10" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>132</v>
+      </c>
+      <c r="B11" s="1">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1">
+        <v>154</v>
+      </c>
+      <c r="F11" s="1">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1">
+        <v>146</v>
+      </c>
+      <c r="D12" s="1">
+        <v>148</v>
+      </c>
+      <c r="E12" s="1">
+        <v>153</v>
+      </c>
+      <c r="F12" s="1">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>168</v>
+      </c>
+      <c r="B13" s="1">
+        <v>164</v>
+      </c>
+      <c r="C13" s="1">
+        <v>166</v>
+      </c>
+      <c r="D13" s="1">
+        <v>165</v>
+      </c>
+      <c r="E13" s="1">
+        <v>154</v>
+      </c>
+      <c r="F13" s="1">
+        <v>160</v>
+      </c>
+      <c r="G13" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>180</v>
+      </c>
+      <c r="B14" s="1">
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1">
+        <v>178</v>
+      </c>
+      <c r="E14" s="1">
+        <v>158</v>
+      </c>
+      <c r="F14" s="1">
+        <v>162</v>
+      </c>
+      <c r="G14" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>186</v>
+      </c>
+      <c r="B15" s="2">
+        <v>186</v>
+      </c>
+      <c r="C15" s="2">
+        <v>186</v>
+      </c>
+      <c r="D15" s="2">
+        <v>186</v>
+      </c>
+      <c r="E15" s="2">
+        <v>186</v>
+      </c>
+      <c r="F15" s="2">
+        <v>186</v>
+      </c>
+      <c r="G15" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>244</v>
+      </c>
+      <c r="B16" s="1">
+        <v>244</v>
+      </c>
+      <c r="C16" s="1">
+        <v>244</v>
+      </c>
+      <c r="D16" s="1">
+        <v>244</v>
+      </c>
+      <c r="E16" s="1">
+        <v>244</v>
+      </c>
+      <c r="F16" s="1">
+        <v>244</v>
+      </c>
+      <c r="G16" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>192</v>
+      </c>
+      <c r="B17" s="1">
+        <v>194</v>
+      </c>
+      <c r="C17" s="1">
+        <v>198</v>
+      </c>
+      <c r="D17" s="1">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>210</v>
+      </c>
+      <c r="F17" s="1">
+        <v>214</v>
+      </c>
+      <c r="G17" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4">
+        <v>10</v>
+      </c>
+      <c r="M21" s="4">
+        <v>12</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>196</v>
+      </c>
+      <c r="C23" s="4">
+        <v>158</v>
+      </c>
+      <c r="D23" s="4">
+        <v>152</v>
+      </c>
+      <c r="E23" s="4">
+        <v>158</v>
+      </c>
+      <c r="F23" s="4">
+        <v>167</v>
+      </c>
+      <c r="G23" s="4">
+        <v>177</v>
+      </c>
+      <c r="H23" s="4">
+        <v>184</v>
+      </c>
+      <c r="I23" s="4">
+        <v>156</v>
+      </c>
+      <c r="J23" s="4">
+        <v>155</v>
+      </c>
+      <c r="K23" s="4">
+        <v>164</v>
+      </c>
+      <c r="L23" s="4">
+        <v>170</v>
+      </c>
+      <c r="M23" s="4">
+        <v>182</v>
+      </c>
+      <c r="N23" s="4">
+        <v>186</v>
+      </c>
+      <c r="O23" s="4">
+        <v>244</v>
+      </c>
+      <c r="P23" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="B25" s="4">
+        <v>236</v>
+      </c>
+      <c r="C25" s="4">
+        <v>195</v>
+      </c>
+      <c r="D25" s="4">
+        <v>175</v>
+      </c>
+      <c r="E25" s="4">
+        <v>175</v>
+      </c>
+      <c r="F25" s="4">
+        <v>178</v>
+      </c>
+      <c r="G25" s="4">
+        <v>182</v>
+      </c>
+      <c r="H25" s="4">
+        <v>124</v>
+      </c>
+      <c r="I25" s="4">
+        <v>118</v>
+      </c>
+      <c r="J25" s="4">
+        <v>132</v>
+      </c>
+      <c r="K25" s="4">
+        <v>148</v>
+      </c>
+      <c r="L25" s="4">
+        <v>168</v>
+      </c>
+      <c r="M25" s="4">
+        <v>180</v>
+      </c>
+      <c r="N25" s="4">
+        <v>186</v>
+      </c>
+      <c r="O25" s="4">
+        <v>244</v>
+      </c>
+      <c r="P25" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B27" s="4">
+        <v>146</v>
+      </c>
+      <c r="C27" s="4">
+        <v>220</v>
+      </c>
+      <c r="D27" s="4">
+        <v>197</v>
+      </c>
+      <c r="E27" s="4">
+        <v>187</v>
+      </c>
+      <c r="F27" s="4">
+        <v>188</v>
+      </c>
+      <c r="G27" s="4">
+        <v>187</v>
+      </c>
+      <c r="H27" s="4">
+        <v>58</v>
+      </c>
+      <c r="I27" s="4">
+        <v>88</v>
+      </c>
+      <c r="J27" s="4">
+        <v>106</v>
+      </c>
+      <c r="K27" s="4">
+        <v>146</v>
+      </c>
+      <c r="L27" s="4">
+        <v>164</v>
+      </c>
+      <c r="M27" s="4">
+        <v>180</v>
+      </c>
+      <c r="N27" s="4">
+        <v>186</v>
+      </c>
+      <c r="O27" s="4">
+        <v>244</v>
+      </c>
+      <c r="P27" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4">
+        <v>244</v>
+      </c>
+      <c r="C29" s="4">
+        <v>235</v>
+      </c>
+      <c r="D29" s="4">
+        <v>212</v>
+      </c>
+      <c r="E29" s="4">
+        <v>199</v>
+      </c>
+      <c r="F29" s="4">
+        <v>194</v>
+      </c>
+      <c r="G29" s="4">
+        <v>189</v>
+      </c>
+      <c r="H29" s="4">
+        <v>13</v>
+      </c>
+      <c r="I29" s="4">
+        <v>54</v>
+      </c>
+      <c r="J29" s="4">
+        <v>116</v>
+      </c>
+      <c r="K29" s="4">
+        <v>146</v>
+      </c>
+      <c r="L29" s="4">
+        <v>166</v>
+      </c>
+      <c r="M29" s="4">
+        <v>178</v>
+      </c>
+      <c r="N29" s="4">
+        <v>186</v>
+      </c>
+      <c r="O29" s="4">
+        <v>244</v>
+      </c>
+      <c r="P29" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>242</v>
+      </c>
+      <c r="C31" s="4">
+        <v>239</v>
+      </c>
+      <c r="D31" s="4">
+        <v>217</v>
+      </c>
+      <c r="E31" s="4">
+        <v>203</v>
+      </c>
+      <c r="F31" s="4">
+        <v>196</v>
+      </c>
+      <c r="G31" s="4">
+        <v>190</v>
+      </c>
+      <c r="H31" s="4">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1.2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I31" s="4">
+        <v>42</v>
+      </c>
+      <c r="J31" s="4">
+        <v>119</v>
+      </c>
+      <c r="K31" s="4">
+        <v>148</v>
+      </c>
+      <c r="L31" s="4">
+        <v>165</v>
+      </c>
+      <c r="M31" s="4">
+        <v>178</v>
+      </c>
+      <c r="N31" s="4">
+        <v>186</v>
+      </c>
+      <c r="O31" s="4">
+        <v>244</v>
+      </c>
+      <c r="P31" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4">
+        <v>247</v>
+      </c>
+      <c r="C33" s="4">
+        <v>236</v>
+      </c>
+      <c r="D33" s="4">
+        <v>217</v>
+      </c>
+      <c r="E33" s="4">
+        <v>205</v>
+      </c>
+      <c r="F33" s="4">
+        <v>197</v>
+      </c>
+      <c r="G33" s="4">
+        <v>190</v>
+      </c>
+      <c r="H33" s="4">
+        <v>156</v>
+      </c>
+      <c r="I33" s="4">
+        <v>154</v>
+      </c>
+      <c r="J33" s="4">
+        <v>154</v>
+      </c>
+      <c r="K33" s="4">
+        <v>153</v>
+      </c>
+      <c r="L33" s="4">
+        <v>154</v>
+      </c>
+      <c r="M33" s="4">
+        <v>158</v>
+      </c>
+      <c r="N33" s="4">
+        <v>186</v>
+      </c>
+      <c r="O33" s="4">
+        <v>244</v>
+      </c>
+      <c r="P33" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>248</v>
+      </c>
+      <c r="C35" s="4">
+        <v>238</v>
+      </c>
+      <c r="D35" s="4">
+        <v>220</v>
+      </c>
+      <c r="E35" s="4">
+        <v>209</v>
+      </c>
+      <c r="F35" s="4">
+        <v>200</v>
+      </c>
+      <c r="G35" s="4">
+        <v>192</v>
+      </c>
+      <c r="H35" s="4">
+        <v>164</v>
+      </c>
+      <c r="I35" s="4">
+        <v>162</v>
+      </c>
+      <c r="J35" s="4">
+        <v>162</v>
+      </c>
+      <c r="K35" s="4">
+        <v>160</v>
+      </c>
+      <c r="L35" s="4">
+        <v>160</v>
+      </c>
+      <c r="M35" s="4">
+        <v>162</v>
+      </c>
+      <c r="N35" s="4">
+        <v>186</v>
+      </c>
+      <c r="O35" s="4">
+        <v>244</v>
+      </c>
+      <c r="P35" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4">
+        <v>247</v>
+      </c>
+      <c r="C37" s="4">
+        <v>242</v>
+      </c>
+      <c r="D37" s="4">
+        <v>226</v>
+      </c>
+      <c r="E37" s="4">
+        <v>217</v>
+      </c>
+      <c r="F37" s="4">
+        <v>205</v>
+      </c>
+      <c r="G37" s="4">
+        <v>196</v>
+      </c>
+      <c r="H37" s="4">
+        <v>172</v>
+      </c>
+      <c r="I37" s="4">
+        <v>170</v>
+      </c>
+      <c r="J37" s="4">
+        <v>169</v>
+      </c>
+      <c r="K37" s="4">
+        <v>168</v>
+      </c>
+      <c r="L37" s="4">
+        <v>164</v>
+      </c>
+      <c r="M37" s="4">
+        <v>164</v>
+      </c>
+      <c r="N37" s="4">
+        <v>186</v>
+      </c>
+      <c r="O37" s="4">
+        <v>246</v>
+      </c>
+      <c r="P37" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\daima\ENG3005-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE3D0B5-CD2D-45D9-997D-50E110043A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DC93F-3654-4E0B-A59A-4E47E3DF6538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3648" yWindow="4224" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="3012" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Atm</t>
   </si>
@@ -35,11 +44,22 @@
   <si>
     <t>Inlet</t>
   </si>
+  <si>
+    <t>peff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uinf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,20 +118,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:P38"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1068,691 +1089,2712 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>7</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>9</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>11</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>8</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>10</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>12</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>0</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>196</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>158</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>152</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>158</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>167</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>177</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>184</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>156</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>155</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>164</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>170</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>182</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>186</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>244</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>236</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>195</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>175</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>175</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>178</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>182</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>124</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>118</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>132</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>148</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>168</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>180</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>186</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>244</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>10</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>146</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>220</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>197</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>187</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>188</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>187</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>58</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>88</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>106</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>146</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>164</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>180</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>186</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>244</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>15</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>244</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>235</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>212</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>199</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>194</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>189</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>13</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>54</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>116</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>146</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>166</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>178</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>186</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>244</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>17.5</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>242</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>239</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>217</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>203</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>196</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>190</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>42</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>119</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>148</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>165</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>178</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>186</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>244</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>20</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>247</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>236</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>217</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>205</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>197</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>190</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>156</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>154</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>154</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>153</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>154</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>158</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>186</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>244</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>22.5</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>248</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>238</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>220</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>209</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>192</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>164</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>162</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>162</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>160</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>160</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>162</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>186</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>244</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>25</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>247</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>242</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>226</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>217</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>205</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>196</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>172</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>170</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>169</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>168</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <v>164</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>164</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>186</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <v>246</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>11</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>8</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69">
+        <v>12</v>
+      </c>
+      <c r="N69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>196</v>
+      </c>
+      <c r="C70">
+        <v>158</v>
+      </c>
+      <c r="D70">
+        <v>152</v>
+      </c>
+      <c r="E70">
+        <v>158</v>
+      </c>
+      <c r="F70">
+        <v>167</v>
+      </c>
+      <c r="G70">
+        <v>177</v>
+      </c>
+      <c r="H70">
+        <v>184</v>
+      </c>
+      <c r="I70">
+        <v>156</v>
+      </c>
+      <c r="J70">
+        <v>155</v>
+      </c>
+      <c r="K70">
+        <v>164</v>
+      </c>
+      <c r="L70">
+        <v>170</v>
+      </c>
+      <c r="M70">
+        <v>182</v>
+      </c>
+      <c r="N70">
+        <v>186</v>
+      </c>
+      <c r="O70">
+        <v>244</v>
+      </c>
+      <c r="P70">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>236</v>
+      </c>
+      <c r="C71">
+        <v>195</v>
+      </c>
+      <c r="D71">
+        <v>175</v>
+      </c>
+      <c r="E71">
+        <v>175</v>
+      </c>
+      <c r="F71">
+        <v>178</v>
+      </c>
+      <c r="G71">
+        <v>182</v>
+      </c>
+      <c r="H71">
+        <v>124</v>
+      </c>
+      <c r="I71">
+        <v>118</v>
+      </c>
+      <c r="J71">
+        <v>132</v>
+      </c>
+      <c r="K71">
+        <v>148</v>
+      </c>
+      <c r="L71">
+        <v>168</v>
+      </c>
+      <c r="M71">
+        <v>180</v>
+      </c>
+      <c r="N71">
+        <v>186</v>
+      </c>
+      <c r="O71">
+        <v>244</v>
+      </c>
+      <c r="P71">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>146</v>
+      </c>
+      <c r="C72">
+        <v>220</v>
+      </c>
+      <c r="D72">
+        <v>197</v>
+      </c>
+      <c r="E72">
+        <v>187</v>
+      </c>
+      <c r="F72">
+        <v>188</v>
+      </c>
+      <c r="G72">
+        <v>187</v>
+      </c>
+      <c r="H72">
+        <v>58</v>
+      </c>
+      <c r="I72">
+        <v>88</v>
+      </c>
+      <c r="J72">
+        <v>106</v>
+      </c>
+      <c r="K72">
+        <v>146</v>
+      </c>
+      <c r="L72">
+        <v>164</v>
+      </c>
+      <c r="M72">
+        <v>180</v>
+      </c>
+      <c r="N72">
+        <v>186</v>
+      </c>
+      <c r="O72">
+        <v>244</v>
+      </c>
+      <c r="P72">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>244</v>
+      </c>
+      <c r="C73">
+        <v>235</v>
+      </c>
+      <c r="D73">
+        <v>212</v>
+      </c>
+      <c r="E73">
+        <v>199</v>
+      </c>
+      <c r="F73">
+        <v>194</v>
+      </c>
+      <c r="G73">
+        <v>189</v>
+      </c>
+      <c r="H73">
+        <v>13</v>
+      </c>
+      <c r="I73">
+        <v>54</v>
+      </c>
+      <c r="J73">
+        <v>116</v>
+      </c>
+      <c r="K73">
+        <v>146</v>
+      </c>
+      <c r="L73">
+        <v>166</v>
+      </c>
+      <c r="M73">
+        <v>178</v>
+      </c>
+      <c r="N73">
+        <v>186</v>
+      </c>
+      <c r="O73">
+        <v>244</v>
+      </c>
+      <c r="P73">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>17.5</v>
+      </c>
+      <c r="B74">
+        <v>242</v>
+      </c>
+      <c r="C74">
+        <v>239</v>
+      </c>
+      <c r="D74">
+        <v>217</v>
+      </c>
+      <c r="E74">
+        <v>203</v>
+      </c>
+      <c r="F74">
+        <v>196</v>
+      </c>
+      <c r="G74">
+        <v>190</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>42</v>
+      </c>
+      <c r="J74">
+        <v>119</v>
+      </c>
+      <c r="K74">
+        <v>148</v>
+      </c>
+      <c r="L74">
+        <v>165</v>
+      </c>
+      <c r="M74">
+        <v>178</v>
+      </c>
+      <c r="N74">
+        <v>186</v>
+      </c>
+      <c r="O74">
+        <v>244</v>
+      </c>
+      <c r="P74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75">
+        <v>247</v>
+      </c>
+      <c r="C75">
+        <v>236</v>
+      </c>
+      <c r="D75">
+        <v>217</v>
+      </c>
+      <c r="E75">
+        <v>205</v>
+      </c>
+      <c r="F75">
+        <v>197</v>
+      </c>
+      <c r="G75">
+        <v>190</v>
+      </c>
+      <c r="H75">
+        <v>156</v>
+      </c>
+      <c r="I75">
+        <v>154</v>
+      </c>
+      <c r="J75">
+        <v>154</v>
+      </c>
+      <c r="K75">
+        <v>153</v>
+      </c>
+      <c r="L75">
+        <v>154</v>
+      </c>
+      <c r="M75">
+        <v>158</v>
+      </c>
+      <c r="N75">
+        <v>186</v>
+      </c>
+      <c r="O75">
+        <v>244</v>
+      </c>
+      <c r="P75">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>22.5</v>
+      </c>
+      <c r="B76">
+        <v>248</v>
+      </c>
+      <c r="C76">
+        <v>238</v>
+      </c>
+      <c r="D76">
+        <v>220</v>
+      </c>
+      <c r="E76">
+        <v>209</v>
+      </c>
+      <c r="F76">
+        <v>200</v>
+      </c>
+      <c r="G76">
+        <v>192</v>
+      </c>
+      <c r="H76">
+        <v>164</v>
+      </c>
+      <c r="I76">
+        <v>162</v>
+      </c>
+      <c r="J76">
+        <v>162</v>
+      </c>
+      <c r="K76">
+        <v>160</v>
+      </c>
+      <c r="L76">
+        <v>160</v>
+      </c>
+      <c r="M76">
+        <v>162</v>
+      </c>
+      <c r="N76">
+        <v>186</v>
+      </c>
+      <c r="O76">
+        <v>244</v>
+      </c>
+      <c r="P76">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>247</v>
+      </c>
+      <c r="C77">
+        <v>242</v>
+      </c>
+      <c r="D77">
+        <v>226</v>
+      </c>
+      <c r="E77">
+        <v>217</v>
+      </c>
+      <c r="F77">
+        <v>205</v>
+      </c>
+      <c r="G77">
+        <v>196</v>
+      </c>
+      <c r="H77">
+        <v>172</v>
+      </c>
+      <c r="I77">
+        <v>170</v>
+      </c>
+      <c r="J77">
+        <v>169</v>
+      </c>
+      <c r="K77">
+        <v>168</v>
+      </c>
+      <c r="L77">
+        <v>164</v>
+      </c>
+      <c r="M77">
+        <v>164</v>
+      </c>
+      <c r="N77">
+        <v>186</v>
+      </c>
+      <c r="O77">
+        <v>246</v>
+      </c>
+      <c r="P77">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80:P80" si="0">B70-$N70</f>
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>-19</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f>O70-$N70</f>
+        <v>58</v>
+      </c>
+      <c r="P80">
+        <f>P70-$N70</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:P81" si="1">B71-$N71</f>
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>-62</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>-68</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>-54</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>-38</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ref="B82:P82" si="2">B72-$N72</f>
+        <v>-40</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="2"/>
+        <v>-98</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="2"/>
+        <v>-80</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="2"/>
+        <v>-22</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:P83" si="3">B73-$N73</f>
+        <v>58</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>-173</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>-132</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>-70</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>17.5</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:P84" si="4">B74-$N74</f>
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="4"/>
+        <v>-178</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="4"/>
+        <v>-144</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>-67</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>-38</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ref="B85:P85" si="5">B75-$N75</f>
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>-30</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>-32</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>-32</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="5"/>
+        <v>-32</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="5"/>
+        <v>-28</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>22.5</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86:P86" si="6">B76-$N76</f>
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>-22</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="6"/>
+        <v>-26</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="6"/>
+        <v>-26</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87:P87" si="7">B77-$N77</f>
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>-16</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>-17</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>-18</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q88" t="s">
+        <v>3</v>
+      </c>
+      <c r="R88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" ref="B89:N89" si="8">B80*9.81</f>
+        <v>98.100000000000009</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="8"/>
+        <v>-274.68</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="8"/>
+        <v>-333.54</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>-274.68</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>-186.39000000000001</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>-88.29</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>-19.62</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="8"/>
+        <v>-294.3</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="8"/>
+        <v>-304.11</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>-215.82000000000002</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="8"/>
+        <v>-156.96</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="8"/>
+        <v>-39.24</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <f>O80*9.81</f>
+        <v>568.98</v>
+      </c>
+      <c r="P89">
+        <f>P80*9.81</f>
+        <v>39.24</v>
+      </c>
+      <c r="Q89">
+        <f>85/135*P89</f>
+        <v>24.706666666666667</v>
+      </c>
+      <c r="R89">
+        <f>SQRT(2*(O89-Q89)/1.2)</f>
+        <v>30.118469785535623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" ref="B90:P90" si="9">B81*9.81</f>
+        <v>490.5</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="9"/>
+        <v>88.29</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="9"/>
+        <v>-107.91000000000001</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="9"/>
+        <v>-107.91000000000001</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>-78.48</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>-39.24</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>-608.22</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="9"/>
+        <v>-667.08</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>-529.74</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="9"/>
+        <v>-372.78000000000003</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>-176.58</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>-58.86</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="9"/>
+        <v>568.98</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="9"/>
+        <v>58.86</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ref="Q90:Q96" si="10">85/135*P90</f>
+        <v>37.06</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90:R96" si="11">SQRT(2*(O90-Q90)/1.2)</f>
+        <v>29.774709626347889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" ref="B91:P91" si="12">B82*9.81</f>
+        <v>-392.40000000000003</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="12"/>
+        <v>333.54</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="12"/>
+        <v>107.91000000000001</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="12"/>
+        <v>9.81</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="12"/>
+        <v>19.62</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="12"/>
+        <v>9.81</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="12"/>
+        <v>-1255.68</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="12"/>
+        <v>-961.38</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="12"/>
+        <v>-784.80000000000007</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="12"/>
+        <v>-392.40000000000003</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="12"/>
+        <v>-215.82000000000002</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="12"/>
+        <v>-58.86</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="12"/>
+        <v>568.98</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="12"/>
+        <v>78.48</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="10"/>
+        <v>49.413333333333334</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="11"/>
+        <v>29.426933996671224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" ref="B92:P92" si="13">B83*9.81</f>
+        <v>568.98</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="13"/>
+        <v>480.69</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="13"/>
+        <v>255.06</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="13"/>
+        <v>127.53</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="13"/>
+        <v>78.48</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="13"/>
+        <v>29.43</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="13"/>
+        <v>-1697.13</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="13"/>
+        <v>-1294.92</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="13"/>
+        <v>-686.7</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="13"/>
+        <v>-392.40000000000003</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="13"/>
+        <v>-196.20000000000002</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="13"/>
+        <v>-78.48</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="13"/>
+        <v>568.98</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="13"/>
+        <v>117.72</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="10"/>
+        <v>74.12</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="11"/>
+        <v>28.718751133478399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" ref="B93:P93" si="14">B84*9.81</f>
+        <v>549.36</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="14"/>
+        <v>519.93000000000006</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="14"/>
+        <v>304.11</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="14"/>
+        <v>166.77</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="14"/>
+        <v>98.100000000000009</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="14"/>
+        <v>39.24</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="14"/>
+        <v>-1746.18</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="14"/>
+        <v>-1412.64</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="14"/>
+        <v>-657.27</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="14"/>
+        <v>-372.78000000000003</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="14"/>
+        <v>-206.01000000000002</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="14"/>
+        <v>-78.48</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="14"/>
+        <v>568.98</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="14"/>
+        <v>137.34</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="10"/>
+        <v>86.473333333333343</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="11"/>
+        <v>28.358028453645677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" ref="B94:P94" si="15">B85*9.81</f>
+        <v>598.41000000000008</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="15"/>
+        <v>490.5</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="15"/>
+        <v>304.11</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="15"/>
+        <v>186.39000000000001</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="15"/>
+        <v>107.91000000000001</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="15"/>
+        <v>39.24</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="15"/>
+        <v>-294.3</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="15"/>
+        <v>-313.92</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="15"/>
+        <v>-313.92</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="15"/>
+        <v>-323.73</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="15"/>
+        <v>-313.92</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="15"/>
+        <v>-274.68</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="15"/>
+        <v>568.98</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="15"/>
+        <v>235.44</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="10"/>
+        <v>148.24</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="11"/>
+        <v>26.480810662314198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" ref="B95:P95" si="16">B86*9.81</f>
+        <v>608.22</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="16"/>
+        <v>510.12</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="16"/>
+        <v>333.54</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="16"/>
+        <v>225.63000000000002</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="16"/>
+        <v>137.34</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="16"/>
+        <v>58.86</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="16"/>
+        <v>-215.82000000000002</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="16"/>
+        <v>-235.44</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="16"/>
+        <v>-235.44</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="16"/>
+        <v>-255.06</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="16"/>
+        <v>-255.06</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="16"/>
+        <v>-235.44</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="16"/>
+        <v>568.98</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="16"/>
+        <v>274.68</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="10"/>
+        <v>172.94666666666669</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="11"/>
+        <v>25.691546383111227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" ref="B96:P96" si="17">B87*9.81</f>
+        <v>598.41000000000008</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="17"/>
+        <v>549.36</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="17"/>
+        <v>392.40000000000003</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="17"/>
+        <v>304.11</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="17"/>
+        <v>186.39000000000001</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="17"/>
+        <v>98.100000000000009</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="17"/>
+        <v>-137.34</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="17"/>
+        <v>-156.96</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="17"/>
+        <v>-166.77</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="17"/>
+        <v>-176.58</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="17"/>
+        <v>-215.82000000000002</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="17"/>
+        <v>-215.82000000000002</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="17"/>
+        <v>588.6</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="17"/>
+        <v>313.92</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="10"/>
+        <v>197.65333333333334</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="11"/>
+        <v>25.526021581472069</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>4.5</v>
+      </c>
+      <c r="D98">
+        <v>11</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98">
+        <v>32.1</v>
+      </c>
+      <c r="G98">
+        <v>44</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>7.5</v>
+      </c>
+      <c r="J98">
+        <v>14.5</v>
+      </c>
+      <c r="K98">
+        <v>26</v>
+      </c>
+      <c r="L98">
+        <v>38</v>
+      </c>
+      <c r="M98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="5">
+        <f>B98/63</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="C99" s="5">
+        <f t="shared" ref="C99:M99" si="18">C98/63</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.17460317460317459</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.31746031746031744</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.5095238095238096</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="H99" s="5">
+        <f t="shared" si="18"/>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="I99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="J99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.23015873015873015</v>
+      </c>
+      <c r="K99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.41269841269841268</v>
+      </c>
+      <c r="L99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.60317460317460314</v>
+      </c>
+      <c r="M99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.79365079365079361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100" s="5">
+        <f>(B89-Q89)/(0.5*1.2*$R$89^2)</f>
+        <v>0.13484646194926572</v>
+      </c>
+      <c r="C100" s="5">
+        <f>(C89-R89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.56000992721586396</v>
+      </c>
+      <c r="D100" s="5">
+        <f>(D89-S89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.61281708945260349</v>
+      </c>
+      <c r="E100" s="5">
+        <f>(E89-T89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.50467289719626174</v>
+      </c>
+      <c r="F100" s="5">
+        <f>(F89-U89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.34245660881174905</v>
+      </c>
+      <c r="G100" s="5">
+        <f>(G89-V89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.16221628838451271</v>
+      </c>
+      <c r="H100" s="5">
+        <f>(H89-W89)/(0.5*1.2*$R$89^2)</f>
+        <v>-3.6048064085447265E-2</v>
+      </c>
+      <c r="I100" s="5">
+        <f>(I89-X89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.54072096128170899</v>
+      </c>
+      <c r="J100" s="5">
+        <f>(J89-Y89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.55874499332443262</v>
+      </c>
+      <c r="K100" s="5">
+        <f>(K89-Z89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.39652870493991993</v>
+      </c>
+      <c r="L100" s="5">
+        <f>(L89-AA89)/(0.5*1.2*$R$89^2)</f>
+        <v>-0.28838451268357812</v>
+      </c>
+      <c r="M100" s="5">
+        <f>(M89-AB89)/(0.5*1.2*$R$89^2)</f>
+        <v>-7.209612817089453E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" s="5">
+        <f>(B90-Q90)/(0.5*1.2*$R90^2)</f>
+        <v>0.85245901639344235</v>
+      </c>
+      <c r="C101" s="5">
+        <f>(C90-R90)/(0.5*1.2*$R90^2)</f>
+        <v>0.11000768982864359</v>
+      </c>
+      <c r="D101" s="5">
+        <f>(D90-S90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.20286885245901634</v>
+      </c>
+      <c r="E101" s="5">
+        <f>(E90-T90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.20286885245901634</v>
+      </c>
+      <c r="F101" s="5">
+        <f>(F90-U90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.14754098360655735</v>
+      </c>
+      <c r="G101" s="5">
+        <f>(G90-V90)/(0.5*1.2*$R90^2)</f>
+        <v>-7.3770491803278673E-2</v>
+      </c>
+      <c r="H101" s="5">
+        <f>(H90-W90)/(0.5*1.2*$R90^2)</f>
+        <v>-1.1434426229508192</v>
+      </c>
+      <c r="I101" s="5">
+        <f>(I90-X90)/(0.5*1.2*$R90^2)</f>
+        <v>-1.2540983606557374</v>
+      </c>
+      <c r="J101" s="5">
+        <f>(J90-Y90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.99590163934426201</v>
+      </c>
+      <c r="K101" s="5">
+        <f>(K90-Z90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.70081967213114738</v>
+      </c>
+      <c r="L101" s="5">
+        <f>(L90-AA90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.33196721311475402</v>
+      </c>
+      <c r="M101" s="5">
+        <f>(M90-AB90)/(0.5*1.2*$R90^2)</f>
+        <v>-0.11065573770491799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102" s="5">
+        <f>(B91-Q91)/(0.5*1.2*$R91^2)</f>
+        <v>-0.85034965034965015</v>
+      </c>
+      <c r="C102" s="5">
+        <f>(C91-R91)/(0.5*1.2*$R91^2)</f>
+        <v>0.58532058639249773</v>
+      </c>
+      <c r="D102" s="5">
+        <f>(D91-S91)/(0.5*1.2*$R91^2)</f>
+        <v>0.20769230769230765</v>
+      </c>
+      <c r="E102" s="5">
+        <f>(E91-T91)/(0.5*1.2*$R91^2)</f>
+        <v>1.8881118881118875E-2</v>
+      </c>
+      <c r="F102" s="5">
+        <f>(F91-U91)/(0.5*1.2*$R91^2)</f>
+        <v>3.7762237762237749E-2</v>
+      </c>
+      <c r="G102" s="5">
+        <f>(G91-V91)/(0.5*1.2*$R91^2)</f>
+        <v>1.8881118881118875E-2</v>
+      </c>
+      <c r="H102" s="5">
+        <f>(H91-W91)/(0.5*1.2*$R91^2)</f>
+        <v>-2.4167832167832159</v>
+      </c>
+      <c r="I102" s="5">
+        <f>(I91-X91)/(0.5*1.2*$R91^2)</f>
+        <v>-1.8503496503496497</v>
+      </c>
+      <c r="J102" s="5">
+        <f>(J91-Y91)/(0.5*1.2*$R91^2)</f>
+        <v>-1.5104895104895102</v>
+      </c>
+      <c r="K102" s="5">
+        <f>(K91-Z91)/(0.5*1.2*$R91^2)</f>
+        <v>-0.75524475524475509</v>
+      </c>
+      <c r="L102" s="5">
+        <f>(L91-AA91)/(0.5*1.2*$R91^2)</f>
+        <v>-0.4153846153846153</v>
+      </c>
+      <c r="M102" s="5">
+        <f>(M91-AB91)/(0.5*1.2*$R91^2)</f>
+        <v>-0.11328671328671325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="B103" s="5">
+        <f>(B92-Q92)/(0.5*1.2*$R92^2)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C103" s="5">
+        <f>(C92-R92)/(0.5*1.2*$R92^2)</f>
+        <v>0.91333154602619215</v>
+      </c>
+      <c r="D103" s="5">
+        <f>(D92-S92)/(0.5*1.2*$R92^2)</f>
+        <v>0.51541850220264307</v>
+      </c>
+      <c r="E103" s="5">
+        <f>(E92-T92)/(0.5*1.2*$R92^2)</f>
+        <v>0.25770925110132153</v>
+      </c>
+      <c r="F103" s="5">
+        <f>(F92-U92)/(0.5*1.2*$R92^2)</f>
+        <v>0.15859030837004401</v>
+      </c>
+      <c r="G103" s="5">
+        <f>(G92-V92)/(0.5*1.2*$R92^2)</f>
+        <v>5.9471365638766503E-2</v>
+      </c>
+      <c r="H103" s="5">
+        <f>(H92-W92)/(0.5*1.2*$R92^2)</f>
+        <v>-3.4295154185022021</v>
+      </c>
+      <c r="I103" s="5">
+        <f>(I92-X92)/(0.5*1.2*$R92^2)</f>
+        <v>-2.6167400881057263</v>
+      </c>
+      <c r="J103" s="5">
+        <f>(J92-Y92)/(0.5*1.2*$R92^2)</f>
+        <v>-1.3876651982378851</v>
+      </c>
+      <c r="K103" s="5">
+        <f>(K92-Z92)/(0.5*1.2*$R92^2)</f>
+        <v>-0.7929515418502201</v>
+      </c>
+      <c r="L103" s="5">
+        <f>(L92-AA92)/(0.5*1.2*$R92^2)</f>
+        <v>-0.39647577092511005</v>
+      </c>
+      <c r="M103" s="5">
+        <f>(M92-AB92)/(0.5*1.2*$R92^2)</f>
+        <v>-0.15859030837004401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>17.5</v>
+      </c>
+      <c r="B104" s="5">
+        <f>(B93-Q93)/(0.5*1.2*$R93^2)</f>
+        <v>0.9593373493975903</v>
+      </c>
+      <c r="C104" s="5">
+        <f>(C93-R93)/(0.5*1.2*$R93^2)</f>
+        <v>1.018787937050309</v>
+      </c>
+      <c r="D104" s="5">
+        <f>(D93-S93)/(0.5*1.2*$R93^2)</f>
+        <v>0.63027108433734946</v>
+      </c>
+      <c r="E104" s="5">
+        <f>(E93-T93)/(0.5*1.2*$R93^2)</f>
+        <v>0.34563253012048195</v>
+      </c>
+      <c r="F104" s="5">
+        <f>(F93-U93)/(0.5*1.2*$R93^2)</f>
+        <v>0.20331325301204822</v>
+      </c>
+      <c r="G104" s="5">
+        <f>(G93-V93)/(0.5*1.2*$R93^2)</f>
+        <v>8.1325301204819289E-2</v>
+      </c>
+      <c r="H104" s="5">
+        <f>(H93-W93)/(0.5*1.2*$R93^2)</f>
+        <v>-3.6189759036144582</v>
+      </c>
+      <c r="I104" s="5">
+        <f>(I93-X93)/(0.5*1.2*$R93^2)</f>
+        <v>-2.9277108433734944</v>
+      </c>
+      <c r="J104" s="5">
+        <f>(J93-Y93)/(0.5*1.2*$R93^2)</f>
+        <v>-1.3621987951807228</v>
+      </c>
+      <c r="K104" s="5">
+        <f>(K93-Z93)/(0.5*1.2*$R93^2)</f>
+        <v>-0.77259036144578319</v>
+      </c>
+      <c r="L104" s="5">
+        <f>(L93-AA93)/(0.5*1.2*$R93^2)</f>
+        <v>-0.42695783132530124</v>
+      </c>
+      <c r="M104" s="5">
+        <f>(M93-AB93)/(0.5*1.2*$R93^2)</f>
+        <v>-0.16265060240963858</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>20</v>
+      </c>
+      <c r="B105" s="5">
+        <f>(B94-Q94)/(0.5*1.2*$R94^2)</f>
+        <v>1.0699481865284977</v>
+      </c>
+      <c r="C105" s="5">
+        <f>(C94-R94)/(0.5*1.2*$R94^2)</f>
+        <v>1.1028644515322665</v>
+      </c>
+      <c r="D105" s="5">
+        <f>(D94-S94)/(0.5*1.2*$R94^2)</f>
+        <v>0.72279792746113991</v>
+      </c>
+      <c r="E105" s="5">
+        <f>(E94-T94)/(0.5*1.2*$R94^2)</f>
+        <v>0.44300518134715028</v>
+      </c>
+      <c r="F105" s="5">
+        <f>(F94-U94)/(0.5*1.2*$R94^2)</f>
+        <v>0.25647668393782386</v>
+      </c>
+      <c r="G105" s="5">
+        <f>(G94-V94)/(0.5*1.2*$R94^2)</f>
+        <v>9.3264248704663211E-2</v>
+      </c>
+      <c r="H105" s="5">
+        <f>(H94-W94)/(0.5*1.2*$R94^2)</f>
+        <v>-0.69948186528497414</v>
+      </c>
+      <c r="I105" s="5">
+        <f>(I94-X94)/(0.5*1.2*$R94^2)</f>
+        <v>-0.74611398963730569</v>
+      </c>
+      <c r="J105" s="5">
+        <f>(J94-Y94)/(0.5*1.2*$R94^2)</f>
+        <v>-0.74611398963730569</v>
+      </c>
+      <c r="K105" s="5">
+        <f>(K94-Z94)/(0.5*1.2*$R94^2)</f>
+        <v>-0.76943005181347157</v>
+      </c>
+      <c r="L105" s="5">
+        <f>(L94-AA94)/(0.5*1.2*$R94^2)</f>
+        <v>-0.74611398963730569</v>
+      </c>
+      <c r="M105" s="5">
+        <f>(M94-AB94)/(0.5*1.2*$R94^2)</f>
+        <v>-0.65284974093264247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>22.5</v>
+      </c>
+      <c r="B106" s="5">
+        <f>(B95-Q95)/(0.5*1.2*$R95^2)</f>
+        <v>1.0990825688073396</v>
+      </c>
+      <c r="C106" s="5">
+        <f>(C95-R95)/(0.5*1.2*$R95^2)</f>
+        <v>1.2232012127351792</v>
+      </c>
+      <c r="D106" s="5">
+        <f>(D95-S95)/(0.5*1.2*$R95^2)</f>
+        <v>0.84220183486238542</v>
+      </c>
+      <c r="E106" s="5">
+        <f>(E95-T95)/(0.5*1.2*$R95^2)</f>
+        <v>0.56972477064220195</v>
+      </c>
+      <c r="F106" s="5">
+        <f>(F95-U95)/(0.5*1.2*$R95^2)</f>
+        <v>0.34678899082568809</v>
+      </c>
+      <c r="G106" s="5">
+        <f>(G95-V95)/(0.5*1.2*$R95^2)</f>
+        <v>0.14862385321100918</v>
+      </c>
+      <c r="H106" s="5">
+        <f>(H95-W95)/(0.5*1.2*$R95^2)</f>
+        <v>-0.54495412844036706</v>
+      </c>
+      <c r="I106" s="5">
+        <f>(I95-X95)/(0.5*1.2*$R95^2)</f>
+        <v>-0.59449541284403673</v>
+      </c>
+      <c r="J106" s="5">
+        <f>(J95-Y95)/(0.5*1.2*$R95^2)</f>
+        <v>-0.59449541284403673</v>
+      </c>
+      <c r="K106" s="5">
+        <f>(K95-Z95)/(0.5*1.2*$R95^2)</f>
+        <v>-0.64403669724770651</v>
+      </c>
+      <c r="L106" s="5">
+        <f>(L95-AA95)/(0.5*1.2*$R95^2)</f>
+        <v>-0.64403669724770651</v>
+      </c>
+      <c r="M106" s="5">
+        <f>(M95-AB95)/(0.5*1.2*$R95^2)</f>
+        <v>-0.59449541284403673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>25</v>
+      </c>
+      <c r="B107" s="5">
+        <f>(B96-Q96)/(0.5*1.2*$R96^2)</f>
+        <v>1.0250929368029742</v>
+      </c>
+      <c r="C107" s="5">
+        <f>(C96-R96)/(0.5*1.2*$R96^2)</f>
+        <v>1.3399116122025032</v>
+      </c>
+      <c r="D107" s="5">
+        <f>(D96-S96)/(0.5*1.2*$R96^2)</f>
+        <v>1.0037174721189592</v>
+      </c>
+      <c r="E107" s="5">
+        <f>(E96-T96)/(0.5*1.2*$R96^2)</f>
+        <v>0.77788104089219334</v>
+      </c>
+      <c r="F107" s="5">
+        <f>(F96-U96)/(0.5*1.2*$R96^2)</f>
+        <v>0.47676579925650564</v>
+      </c>
+      <c r="G107" s="5">
+        <f>(G96-V96)/(0.5*1.2*$R96^2)</f>
+        <v>0.25092936802973981</v>
+      </c>
+      <c r="H107" s="5">
+        <f>(H96-W96)/(0.5*1.2*$R96^2)</f>
+        <v>-0.35130111524163571</v>
+      </c>
+      <c r="I107" s="5">
+        <f>(I96-X96)/(0.5*1.2*$R96^2)</f>
+        <v>-0.40148698884758366</v>
+      </c>
+      <c r="J107" s="5">
+        <f>(J96-Y96)/(0.5*1.2*$R96^2)</f>
+        <v>-0.42657992565055763</v>
+      </c>
+      <c r="K107" s="5">
+        <f>(K96-Z96)/(0.5*1.2*$R96^2)</f>
+        <v>-0.45167286245353166</v>
+      </c>
+      <c r="L107" s="5">
+        <f>(L96-AA96)/(0.5*1.2*$R96^2)</f>
+        <v>-0.55204460966542757</v>
+      </c>
+      <c r="M107" s="5">
+        <f>(M96-AB96)/(0.5*1.2*$R96^2)</f>
+        <v>-0.55204460966542757</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -1775,54 +3817,80 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\daima\ENG3005-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DC93F-3654-4E0B-A59A-4E47E3DF6538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579F72C-9E25-42AB-8CFD-247A4BD34D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="3012" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="3000" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -126,13 +126,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:L107"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1089,614 +1089,614 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>7</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>9</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>11</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>6</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="4">
         <v>12</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>0</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>196</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>158</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>152</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>158</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>167</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>177</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <v>184</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>156</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>155</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <v>164</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <v>170</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="4">
         <v>182</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="4">
         <v>186</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="4">
         <v>244</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="4">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>5</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>236</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>195</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>175</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>175</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>178</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>182</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <v>124</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>118</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <v>132</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <v>148</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <v>168</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <v>180</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="4">
         <v>186</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="4">
         <v>244</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="4">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>10</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>146</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>220</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>197</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>187</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>188</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <v>187</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <v>58</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <v>88</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>106</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <v>146</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="4">
         <v>164</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="4">
         <v>180</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="4">
         <v>186</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="4">
         <v>244</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="4">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>15</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>244</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>235</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>212</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>199</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>194</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>189</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <v>13</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <v>54</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <v>116</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <v>146</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
         <v>166</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="4">
         <v>178</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
         <v>186</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="4">
         <v>244</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>17.5</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>242</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>239</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>217</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>203</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>196</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>190</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4">
         <v>8</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4">
         <v>42</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <v>119</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <v>148</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>165</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="4">
         <v>178</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="4">
         <v>186</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="4">
         <v>244</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>20</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>247</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>236</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>217</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>205</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>197</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>190</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <v>156</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="4">
         <v>154</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <v>154</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <v>153</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4">
         <v>154</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="4">
         <v>158</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="4">
         <v>186</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="4">
         <v>244</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>22.5</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>248</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>238</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>220</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>209</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <v>192</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <v>164</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <v>162</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <v>162</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <v>160</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="4">
         <v>160</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="4">
         <v>162</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="4">
         <v>186</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="4">
         <v>244</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="4">
         <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>25</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>247</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>242</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>226</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>217</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>205</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <v>196</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="4">
         <v>172</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>170</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <v>169</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4">
         <v>168</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4">
         <v>164</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="4">
         <v>164</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="4">
         <v>186</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="4">
         <v>246</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="4">
         <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69">
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:P80" si="0">B70-$N70</f>
+        <f t="shared" ref="B80:N80" si="0">B70-$N70</f>
         <v>10</v>
       </c>
       <c r="C80">
@@ -3272,51 +3272,51 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="5">
+      <c r="B99" s="3">
         <f>B98/63</f>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="3">
         <f t="shared" ref="C99:M99" si="18">C98/63</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="3">
         <f t="shared" si="18"/>
         <v>0.17460317460317459</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="3">
         <f t="shared" si="18"/>
         <v>0.31746031746031744</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="3">
         <f t="shared" si="18"/>
         <v>0.5095238095238096</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="3">
         <f t="shared" si="18"/>
         <v>0.69841269841269837</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="3">
         <f t="shared" si="18"/>
         <v>3.1746031746031744E-2</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="3">
         <f t="shared" si="18"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="3">
         <f t="shared" si="18"/>
         <v>0.23015873015873015</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99" s="3">
         <f t="shared" si="18"/>
         <v>0.41269841269841268</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99" s="3">
         <f t="shared" si="18"/>
         <v>0.60317460317460314</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="3">
         <f t="shared" si="18"/>
         <v>0.79365079365079361</v>
       </c>
@@ -3325,52 +3325,52 @@
       <c r="A100">
         <v>0</v>
       </c>
-      <c r="B100" s="5">
-        <f>(B89-Q89)/(0.5*1.2*$R$89^2)</f>
+      <c r="B100" s="3">
+        <f t="shared" ref="B100:M100" si="19">(B89-Q89)/(0.5*1.2*$R$89^2)</f>
         <v>0.13484646194926572</v>
       </c>
-      <c r="C100" s="5">
-        <f>(C89-R89)/(0.5*1.2*$R$89^2)</f>
+      <c r="C100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.56000992721586396</v>
       </c>
-      <c r="D100" s="5">
-        <f>(D89-S89)/(0.5*1.2*$R$89^2)</f>
+      <c r="D100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.61281708945260349</v>
       </c>
-      <c r="E100" s="5">
-        <f>(E89-T89)/(0.5*1.2*$R$89^2)</f>
+      <c r="E100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.50467289719626174</v>
       </c>
-      <c r="F100" s="5">
-        <f>(F89-U89)/(0.5*1.2*$R$89^2)</f>
+      <c r="F100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.34245660881174905</v>
       </c>
-      <c r="G100" s="5">
-        <f>(G89-V89)/(0.5*1.2*$R$89^2)</f>
+      <c r="G100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.16221628838451271</v>
       </c>
-      <c r="H100" s="5">
-        <f>(H89-W89)/(0.5*1.2*$R$89^2)</f>
+      <c r="H100" s="3">
+        <f t="shared" si="19"/>
         <v>-3.6048064085447265E-2</v>
       </c>
-      <c r="I100" s="5">
-        <f>(I89-X89)/(0.5*1.2*$R$89^2)</f>
+      <c r="I100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.54072096128170899</v>
       </c>
-      <c r="J100" s="5">
-        <f>(J89-Y89)/(0.5*1.2*$R$89^2)</f>
+      <c r="J100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.55874499332443262</v>
       </c>
-      <c r="K100" s="5">
-        <f>(K89-Z89)/(0.5*1.2*$R$89^2)</f>
+      <c r="K100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.39652870493991993</v>
       </c>
-      <c r="L100" s="5">
-        <f>(L89-AA89)/(0.5*1.2*$R$89^2)</f>
+      <c r="L100" s="3">
+        <f t="shared" si="19"/>
         <v>-0.28838451268357812</v>
       </c>
-      <c r="M100" s="5">
-        <f>(M89-AB89)/(0.5*1.2*$R$89^2)</f>
+      <c r="M100" s="3">
+        <f t="shared" si="19"/>
         <v>-7.209612817089453E-2</v>
       </c>
     </row>
@@ -3378,52 +3378,52 @@
       <c r="A101">
         <v>5</v>
       </c>
-      <c r="B101" s="5">
-        <f>(B90-Q90)/(0.5*1.2*$R90^2)</f>
+      <c r="B101" s="3">
+        <f t="shared" ref="B101:M107" si="20">(B90-Q90)/(0.5*1.2*$R90^2)</f>
         <v>0.85245901639344235</v>
       </c>
-      <c r="C101" s="5">
-        <f>(C90-R90)/(0.5*1.2*$R90^2)</f>
+      <c r="C101" s="3">
+        <f t="shared" si="20"/>
         <v>0.11000768982864359</v>
       </c>
-      <c r="D101" s="5">
-        <f>(D90-S90)/(0.5*1.2*$R90^2)</f>
+      <c r="D101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.20286885245901634</v>
       </c>
-      <c r="E101" s="5">
-        <f>(E90-T90)/(0.5*1.2*$R90^2)</f>
+      <c r="E101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.20286885245901634</v>
       </c>
-      <c r="F101" s="5">
-        <f>(F90-U90)/(0.5*1.2*$R90^2)</f>
+      <c r="F101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.14754098360655735</v>
       </c>
-      <c r="G101" s="5">
-        <f>(G90-V90)/(0.5*1.2*$R90^2)</f>
+      <c r="G101" s="3">
+        <f t="shared" si="20"/>
         <v>-7.3770491803278673E-2</v>
       </c>
-      <c r="H101" s="5">
-        <f>(H90-W90)/(0.5*1.2*$R90^2)</f>
+      <c r="H101" s="3">
+        <f t="shared" si="20"/>
         <v>-1.1434426229508192</v>
       </c>
-      <c r="I101" s="5">
-        <f>(I90-X90)/(0.5*1.2*$R90^2)</f>
+      <c r="I101" s="3">
+        <f t="shared" si="20"/>
         <v>-1.2540983606557374</v>
       </c>
-      <c r="J101" s="5">
-        <f>(J90-Y90)/(0.5*1.2*$R90^2)</f>
+      <c r="J101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.99590163934426201</v>
       </c>
-      <c r="K101" s="5">
-        <f>(K90-Z90)/(0.5*1.2*$R90^2)</f>
+      <c r="K101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.70081967213114738</v>
       </c>
-      <c r="L101" s="5">
-        <f>(L90-AA90)/(0.5*1.2*$R90^2)</f>
+      <c r="L101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.33196721311475402</v>
       </c>
-      <c r="M101" s="5">
-        <f>(M90-AB90)/(0.5*1.2*$R90^2)</f>
+      <c r="M101" s="3">
+        <f t="shared" si="20"/>
         <v>-0.11065573770491799</v>
       </c>
     </row>
@@ -3431,52 +3431,52 @@
       <c r="A102">
         <v>10</v>
       </c>
-      <c r="B102" s="5">
-        <f>(B91-Q91)/(0.5*1.2*$R91^2)</f>
+      <c r="B102" s="3">
+        <f t="shared" si="20"/>
         <v>-0.85034965034965015</v>
       </c>
-      <c r="C102" s="5">
-        <f>(C91-R91)/(0.5*1.2*$R91^2)</f>
+      <c r="C102" s="3">
+        <f t="shared" si="20"/>
         <v>0.58532058639249773</v>
       </c>
-      <c r="D102" s="5">
-        <f>(D91-S91)/(0.5*1.2*$R91^2)</f>
+      <c r="D102" s="3">
+        <f t="shared" si="20"/>
         <v>0.20769230769230765</v>
       </c>
-      <c r="E102" s="5">
-        <f>(E91-T91)/(0.5*1.2*$R91^2)</f>
+      <c r="E102" s="3">
+        <f t="shared" si="20"/>
         <v>1.8881118881118875E-2</v>
       </c>
-      <c r="F102" s="5">
-        <f>(F91-U91)/(0.5*1.2*$R91^2)</f>
+      <c r="F102" s="3">
+        <f t="shared" si="20"/>
         <v>3.7762237762237749E-2</v>
       </c>
-      <c r="G102" s="5">
-        <f>(G91-V91)/(0.5*1.2*$R91^2)</f>
+      <c r="G102" s="3">
+        <f t="shared" si="20"/>
         <v>1.8881118881118875E-2</v>
       </c>
-      <c r="H102" s="5">
-        <f>(H91-W91)/(0.5*1.2*$R91^2)</f>
+      <c r="H102" s="3">
+        <f t="shared" si="20"/>
         <v>-2.4167832167832159</v>
       </c>
-      <c r="I102" s="5">
-        <f>(I91-X91)/(0.5*1.2*$R91^2)</f>
+      <c r="I102" s="3">
+        <f t="shared" si="20"/>
         <v>-1.8503496503496497</v>
       </c>
-      <c r="J102" s="5">
-        <f>(J91-Y91)/(0.5*1.2*$R91^2)</f>
+      <c r="J102" s="3">
+        <f t="shared" si="20"/>
         <v>-1.5104895104895102</v>
       </c>
-      <c r="K102" s="5">
-        <f>(K91-Z91)/(0.5*1.2*$R91^2)</f>
+      <c r="K102" s="3">
+        <f t="shared" si="20"/>
         <v>-0.75524475524475509</v>
       </c>
-      <c r="L102" s="5">
-        <f>(L91-AA91)/(0.5*1.2*$R91^2)</f>
+      <c r="L102" s="3">
+        <f t="shared" si="20"/>
         <v>-0.4153846153846153</v>
       </c>
-      <c r="M102" s="5">
-        <f>(M91-AB91)/(0.5*1.2*$R91^2)</f>
+      <c r="M102" s="3">
+        <f t="shared" si="20"/>
         <v>-0.11328671328671325</v>
       </c>
     </row>
@@ -3484,52 +3484,52 @@
       <c r="A103">
         <v>15</v>
       </c>
-      <c r="B103" s="5">
-        <f>(B92-Q92)/(0.5*1.2*$R92^2)</f>
+      <c r="B103" s="3">
+        <f t="shared" si="20"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="C103" s="5">
-        <f>(C92-R92)/(0.5*1.2*$R92^2)</f>
+      <c r="C103" s="3">
+        <f t="shared" si="20"/>
         <v>0.91333154602619215</v>
       </c>
-      <c r="D103" s="5">
-        <f>(D92-S92)/(0.5*1.2*$R92^2)</f>
+      <c r="D103" s="3">
+        <f t="shared" si="20"/>
         <v>0.51541850220264307</v>
       </c>
-      <c r="E103" s="5">
-        <f>(E92-T92)/(0.5*1.2*$R92^2)</f>
+      <c r="E103" s="3">
+        <f t="shared" si="20"/>
         <v>0.25770925110132153</v>
       </c>
-      <c r="F103" s="5">
-        <f>(F92-U92)/(0.5*1.2*$R92^2)</f>
+      <c r="F103" s="3">
+        <f t="shared" si="20"/>
         <v>0.15859030837004401</v>
       </c>
-      <c r="G103" s="5">
-        <f>(G92-V92)/(0.5*1.2*$R92^2)</f>
+      <c r="G103" s="3">
+        <f t="shared" si="20"/>
         <v>5.9471365638766503E-2</v>
       </c>
-      <c r="H103" s="5">
-        <f>(H92-W92)/(0.5*1.2*$R92^2)</f>
+      <c r="H103" s="3">
+        <f t="shared" si="20"/>
         <v>-3.4295154185022021</v>
       </c>
-      <c r="I103" s="5">
-        <f>(I92-X92)/(0.5*1.2*$R92^2)</f>
+      <c r="I103" s="3">
+        <f t="shared" si="20"/>
         <v>-2.6167400881057263</v>
       </c>
-      <c r="J103" s="5">
-        <f>(J92-Y92)/(0.5*1.2*$R92^2)</f>
+      <c r="J103" s="3">
+        <f t="shared" si="20"/>
         <v>-1.3876651982378851</v>
       </c>
-      <c r="K103" s="5">
-        <f>(K92-Z92)/(0.5*1.2*$R92^2)</f>
+      <c r="K103" s="3">
+        <f t="shared" si="20"/>
         <v>-0.7929515418502201</v>
       </c>
-      <c r="L103" s="5">
-        <f>(L92-AA92)/(0.5*1.2*$R92^2)</f>
+      <c r="L103" s="3">
+        <f t="shared" si="20"/>
         <v>-0.39647577092511005</v>
       </c>
-      <c r="M103" s="5">
-        <f>(M92-AB92)/(0.5*1.2*$R92^2)</f>
+      <c r="M103" s="3">
+        <f t="shared" si="20"/>
         <v>-0.15859030837004401</v>
       </c>
     </row>
@@ -3537,52 +3537,52 @@
       <c r="A104">
         <v>17.5</v>
       </c>
-      <c r="B104" s="5">
-        <f>(B93-Q93)/(0.5*1.2*$R93^2)</f>
+      <c r="B104" s="3">
+        <f t="shared" si="20"/>
         <v>0.9593373493975903</v>
       </c>
-      <c r="C104" s="5">
-        <f>(C93-R93)/(0.5*1.2*$R93^2)</f>
+      <c r="C104" s="3">
+        <f t="shared" si="20"/>
         <v>1.018787937050309</v>
       </c>
-      <c r="D104" s="5">
-        <f>(D93-S93)/(0.5*1.2*$R93^2)</f>
+      <c r="D104" s="3">
+        <f t="shared" si="20"/>
         <v>0.63027108433734946</v>
       </c>
-      <c r="E104" s="5">
-        <f>(E93-T93)/(0.5*1.2*$R93^2)</f>
+      <c r="E104" s="3">
+        <f t="shared" si="20"/>
         <v>0.34563253012048195</v>
       </c>
-      <c r="F104" s="5">
-        <f>(F93-U93)/(0.5*1.2*$R93^2)</f>
+      <c r="F104" s="3">
+        <f t="shared" si="20"/>
         <v>0.20331325301204822</v>
       </c>
-      <c r="G104" s="5">
-        <f>(G93-V93)/(0.5*1.2*$R93^2)</f>
+      <c r="G104" s="3">
+        <f t="shared" si="20"/>
         <v>8.1325301204819289E-2</v>
       </c>
-      <c r="H104" s="5">
-        <f>(H93-W93)/(0.5*1.2*$R93^2)</f>
+      <c r="H104" s="3">
+        <f t="shared" si="20"/>
         <v>-3.6189759036144582</v>
       </c>
-      <c r="I104" s="5">
-        <f>(I93-X93)/(0.5*1.2*$R93^2)</f>
+      <c r="I104" s="3">
+        <f t="shared" si="20"/>
         <v>-2.9277108433734944</v>
       </c>
-      <c r="J104" s="5">
-        <f>(J93-Y93)/(0.5*1.2*$R93^2)</f>
+      <c r="J104" s="3">
+        <f t="shared" si="20"/>
         <v>-1.3621987951807228</v>
       </c>
-      <c r="K104" s="5">
-        <f>(K93-Z93)/(0.5*1.2*$R93^2)</f>
+      <c r="K104" s="3">
+        <f t="shared" si="20"/>
         <v>-0.77259036144578319</v>
       </c>
-      <c r="L104" s="5">
-        <f>(L93-AA93)/(0.5*1.2*$R93^2)</f>
+      <c r="L104" s="3">
+        <f t="shared" si="20"/>
         <v>-0.42695783132530124</v>
       </c>
-      <c r="M104" s="5">
-        <f>(M93-AB93)/(0.5*1.2*$R93^2)</f>
+      <c r="M104" s="3">
+        <f t="shared" si="20"/>
         <v>-0.16265060240963858</v>
       </c>
     </row>
@@ -3590,52 +3590,52 @@
       <c r="A105">
         <v>20</v>
       </c>
-      <c r="B105" s="5">
-        <f>(B94-Q94)/(0.5*1.2*$R94^2)</f>
+      <c r="B105" s="3">
+        <f t="shared" si="20"/>
         <v>1.0699481865284977</v>
       </c>
-      <c r="C105" s="5">
-        <f>(C94-R94)/(0.5*1.2*$R94^2)</f>
+      <c r="C105" s="3">
+        <f t="shared" si="20"/>
         <v>1.1028644515322665</v>
       </c>
-      <c r="D105" s="5">
-        <f>(D94-S94)/(0.5*1.2*$R94^2)</f>
+      <c r="D105" s="3">
+        <f t="shared" si="20"/>
         <v>0.72279792746113991</v>
       </c>
-      <c r="E105" s="5">
-        <f>(E94-T94)/(0.5*1.2*$R94^2)</f>
+      <c r="E105" s="3">
+        <f t="shared" si="20"/>
         <v>0.44300518134715028</v>
       </c>
-      <c r="F105" s="5">
-        <f>(F94-U94)/(0.5*1.2*$R94^2)</f>
+      <c r="F105" s="3">
+        <f t="shared" si="20"/>
         <v>0.25647668393782386</v>
       </c>
-      <c r="G105" s="5">
-        <f>(G94-V94)/(0.5*1.2*$R94^2)</f>
+      <c r="G105" s="3">
+        <f t="shared" si="20"/>
         <v>9.3264248704663211E-2</v>
       </c>
-      <c r="H105" s="5">
-        <f>(H94-W94)/(0.5*1.2*$R94^2)</f>
+      <c r="H105" s="3">
+        <f t="shared" si="20"/>
         <v>-0.69948186528497414</v>
       </c>
-      <c r="I105" s="5">
-        <f>(I94-X94)/(0.5*1.2*$R94^2)</f>
+      <c r="I105" s="3">
+        <f t="shared" si="20"/>
         <v>-0.74611398963730569</v>
       </c>
-      <c r="J105" s="5">
-        <f>(J94-Y94)/(0.5*1.2*$R94^2)</f>
+      <c r="J105" s="3">
+        <f t="shared" si="20"/>
         <v>-0.74611398963730569</v>
       </c>
-      <c r="K105" s="5">
-        <f>(K94-Z94)/(0.5*1.2*$R94^2)</f>
+      <c r="K105" s="3">
+        <f t="shared" si="20"/>
         <v>-0.76943005181347157</v>
       </c>
-      <c r="L105" s="5">
-        <f>(L94-AA94)/(0.5*1.2*$R94^2)</f>
+      <c r="L105" s="3">
+        <f t="shared" si="20"/>
         <v>-0.74611398963730569</v>
       </c>
-      <c r="M105" s="5">
-        <f>(M94-AB94)/(0.5*1.2*$R94^2)</f>
+      <c r="M105" s="3">
+        <f t="shared" si="20"/>
         <v>-0.65284974093264247</v>
       </c>
     </row>
@@ -3643,52 +3643,52 @@
       <c r="A106">
         <v>22.5</v>
       </c>
-      <c r="B106" s="5">
-        <f>(B95-Q95)/(0.5*1.2*$R95^2)</f>
+      <c r="B106" s="3">
+        <f t="shared" si="20"/>
         <v>1.0990825688073396</v>
       </c>
-      <c r="C106" s="5">
-        <f>(C95-R95)/(0.5*1.2*$R95^2)</f>
+      <c r="C106" s="3">
+        <f t="shared" si="20"/>
         <v>1.2232012127351792</v>
       </c>
-      <c r="D106" s="5">
-        <f>(D95-S95)/(0.5*1.2*$R95^2)</f>
+      <c r="D106" s="3">
+        <f t="shared" si="20"/>
         <v>0.84220183486238542</v>
       </c>
-      <c r="E106" s="5">
-        <f>(E95-T95)/(0.5*1.2*$R95^2)</f>
+      <c r="E106" s="3">
+        <f t="shared" si="20"/>
         <v>0.56972477064220195</v>
       </c>
-      <c r="F106" s="5">
-        <f>(F95-U95)/(0.5*1.2*$R95^2)</f>
+      <c r="F106" s="3">
+        <f t="shared" si="20"/>
         <v>0.34678899082568809</v>
       </c>
-      <c r="G106" s="5">
-        <f>(G95-V95)/(0.5*1.2*$R95^2)</f>
+      <c r="G106" s="3">
+        <f t="shared" si="20"/>
         <v>0.14862385321100918</v>
       </c>
-      <c r="H106" s="5">
-        <f>(H95-W95)/(0.5*1.2*$R95^2)</f>
+      <c r="H106" s="3">
+        <f t="shared" si="20"/>
         <v>-0.54495412844036706</v>
       </c>
-      <c r="I106" s="5">
-        <f>(I95-X95)/(0.5*1.2*$R95^2)</f>
+      <c r="I106" s="3">
+        <f t="shared" si="20"/>
         <v>-0.59449541284403673</v>
       </c>
-      <c r="J106" s="5">
-        <f>(J95-Y95)/(0.5*1.2*$R95^2)</f>
+      <c r="J106" s="3">
+        <f t="shared" si="20"/>
         <v>-0.59449541284403673</v>
       </c>
-      <c r="K106" s="5">
-        <f>(K95-Z95)/(0.5*1.2*$R95^2)</f>
+      <c r="K106" s="3">
+        <f t="shared" si="20"/>
         <v>-0.64403669724770651</v>
       </c>
-      <c r="L106" s="5">
-        <f>(L95-AA95)/(0.5*1.2*$R95^2)</f>
+      <c r="L106" s="3">
+        <f t="shared" si="20"/>
         <v>-0.64403669724770651</v>
       </c>
-      <c r="M106" s="5">
-        <f>(M95-AB95)/(0.5*1.2*$R95^2)</f>
+      <c r="M106" s="3">
+        <f t="shared" si="20"/>
         <v>-0.59449541284403673</v>
       </c>
     </row>
@@ -3696,105 +3696,129 @@
       <c r="A107">
         <v>25</v>
       </c>
-      <c r="B107" s="5">
-        <f>(B96-Q96)/(0.5*1.2*$R96^2)</f>
+      <c r="B107" s="3">
+        <f t="shared" si="20"/>
         <v>1.0250929368029742</v>
       </c>
-      <c r="C107" s="5">
-        <f>(C96-R96)/(0.5*1.2*$R96^2)</f>
+      <c r="C107" s="3">
+        <f t="shared" si="20"/>
         <v>1.3399116122025032</v>
       </c>
-      <c r="D107" s="5">
-        <f>(D96-S96)/(0.5*1.2*$R96^2)</f>
+      <c r="D107" s="3">
+        <f t="shared" si="20"/>
         <v>1.0037174721189592</v>
       </c>
-      <c r="E107" s="5">
-        <f>(E96-T96)/(0.5*1.2*$R96^2)</f>
+      <c r="E107" s="3">
+        <f t="shared" si="20"/>
         <v>0.77788104089219334</v>
       </c>
-      <c r="F107" s="5">
-        <f>(F96-U96)/(0.5*1.2*$R96^2)</f>
+      <c r="F107" s="3">
+        <f t="shared" si="20"/>
         <v>0.47676579925650564</v>
       </c>
-      <c r="G107" s="5">
-        <f>(G96-V96)/(0.5*1.2*$R96^2)</f>
+      <c r="G107" s="3">
+        <f t="shared" si="20"/>
         <v>0.25092936802973981</v>
       </c>
-      <c r="H107" s="5">
-        <f>(H96-W96)/(0.5*1.2*$R96^2)</f>
+      <c r="H107" s="3">
+        <f t="shared" si="20"/>
         <v>-0.35130111524163571</v>
       </c>
-      <c r="I107" s="5">
-        <f>(I96-X96)/(0.5*1.2*$R96^2)</f>
+      <c r="I107" s="3">
+        <f t="shared" si="20"/>
         <v>-0.40148698884758366</v>
       </c>
-      <c r="J107" s="5">
-        <f>(J96-Y96)/(0.5*1.2*$R96^2)</f>
+      <c r="J107" s="3">
+        <f t="shared" si="20"/>
         <v>-0.42657992565055763</v>
       </c>
-      <c r="K107" s="5">
-        <f>(K96-Z96)/(0.5*1.2*$R96^2)</f>
+      <c r="K107" s="3">
+        <f t="shared" si="20"/>
         <v>-0.45167286245353166</v>
       </c>
-      <c r="L107" s="5">
-        <f>(L96-AA96)/(0.5*1.2*$R96^2)</f>
+      <c r="L107" s="3">
+        <f t="shared" si="20"/>
         <v>-0.55204460966542757</v>
       </c>
-      <c r="M107" s="5">
-        <f>(M96-AB96)/(0.5*1.2*$R96^2)</f>
+      <c r="M107" s="3">
+        <f t="shared" si="20"/>
         <v>-0.55204460966542757</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -3819,78 +3843,54 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\daima\ENG3005-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579F72C-9E25-42AB-8CFD-247A4BD34D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19F084B-1297-45BF-9571-740E8C228C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4896" yWindow="3000" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3747,78 +3747,54 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -3843,54 +3819,78 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
